--- a/ヒューマンスキル/ライフサークル_23010035_茂木翔.xlsx
+++ b/ヒューマンスキル/ライフサークル_23010035_茂木翔.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motek\学校資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motek\Desktop\siw-git\ヒューマンスキル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECA8804-93D2-4196-A659-D9CAEADD8A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0B5E59-E926-4AB7-A14B-3E7B297EC253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C09ADD6B-5CC2-FB49-A4C5-6AD416999CEE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C09ADD6B-5CC2-FB49-A4C5-6AD416999CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="ライフサークル" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
@@ -1546,16 +1546,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9F2689-4A7B-104B-B56F-ABC3111017D3}">
   <dimension ref="B1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="35.25">
+    <row r="1" spans="2:4" ht="35">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="28.5">
@@ -1664,6 +1664,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100340F491979A8E44D9AF00DF3EBE187F1" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="3a9a7fd8454a7373c184e8261485b2b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4f4cb971-ecd5-4e97-9a52-0df69aed19b9" xmlns:ns3="74910bc7-afd4-4c00-8ab6-82c68bcc7ead" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="43de494b5fa2bc6e31997a5fcd7fb5d0" ns2:_="" ns3:_="">
     <xsd:import namespace="4f4cb971-ecd5-4e97-9a52-0df69aed19b9"/>
@@ -1886,16 +1895,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72D1CA4F-CB09-4580-B02D-C54551BEDD09}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DCECDBA-E275-4BA3-9962-03408ADA7FE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1912,12 +1920,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72D1CA4F-CB09-4580-B02D-C54551BEDD09}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ヒューマンスキル/ライフサークル_23010035_茂木翔.xlsx
+++ b/ヒューマンスキル/ライフサークル_23010035_茂木翔.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motek\学校資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siw\Desktop\moteki\siw-git\ヒューマンスキル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECA8804-93D2-4196-A659-D9CAEADD8A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B08D708-B370-4E9C-96CF-AB970BDBC5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C09ADD6B-5CC2-FB49-A4C5-6AD416999CEE}"/>
+    <workbookView xWindow="3030" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{C09ADD6B-5CC2-FB49-A4C5-6AD416999CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="ライフサークル" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -436,7 +434,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
@@ -1546,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9F2689-4A7B-104B-B56F-ABC3111017D3}">
   <dimension ref="B1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
@@ -1604,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="28.5">
@@ -1664,6 +1662,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100340F491979A8E44D9AF00DF3EBE187F1" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="3a9a7fd8454a7373c184e8261485b2b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4f4cb971-ecd5-4e97-9a52-0df69aed19b9" xmlns:ns3="74910bc7-afd4-4c00-8ab6-82c68bcc7ead" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="43de494b5fa2bc6e31997a5fcd7fb5d0" ns2:_="" ns3:_="">
     <xsd:import namespace="4f4cb971-ecd5-4e97-9a52-0df69aed19b9"/>
@@ -1886,16 +1893,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72D1CA4F-CB09-4580-B02D-C54551BEDD09}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DCECDBA-E275-4BA3-9962-03408ADA7FE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1912,12 +1918,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72D1CA4F-CB09-4580-B02D-C54551BEDD09}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>